--- a/MASTER WDIG Taxonomy.xlsx
+++ b/MASTER WDIG Taxonomy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\F&amp;A\WS210\Secure\WebTeam\PROJECTS\Projects_Active\Compost Lookup Tool_Pat Kaufman_3-17-2011\Taxonomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\kytel\WDIG\util-wdig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1033">
   <si>
     <t>WDIG Taxonomy Terms</t>
   </si>
@@ -104,9 +104,6 @@
     <t>firecrackers</t>
   </si>
   <si>
-    <t>fireworks</t>
-  </si>
-  <si>
     <t>guns</t>
   </si>
   <si>
@@ -2732,9 +2729,6 @@
     <t>Glass or Ceramic Household Items</t>
   </si>
   <si>
-    <t>Ammunition, Guns or Fireworks</t>
-  </si>
-  <si>
     <t>Small Gas Canisters</t>
   </si>
   <si>
@@ -3114,13 +3108,28 @@
   </si>
   <si>
     <t>Packing Sheets or Styrofoam Blocks</t>
+  </si>
+  <si>
+    <t>Ammunition or Guns</t>
+  </si>
+  <si>
+    <t>Fireworks</t>
+  </si>
+  <si>
+    <t>6/22 - NEW entry split off from "Ammunition or Guns" Entry</t>
+  </si>
+  <si>
+    <t>plastic tubs</t>
+  </si>
+  <si>
+    <t>Added 7/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3202,6 +3211,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3236,7 +3261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3424,6 +3449,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3753,10 +3784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1011"/>
+  <dimension ref="A1:C1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A907" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A895" sqref="A895"/>
+    <sheetView tabSelected="1" topLeftCell="A917" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C934" sqref="C934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3782,7 +3813,7 @@
         <v>3001590</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C2" s="53"/>
     </row>
@@ -3806,7 +3837,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C6" s="44"/>
     </row>
@@ -3815,7 +3846,7 @@
         <v>375</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="39"/>
     </row>
@@ -3824,7 +3855,7 @@
         <v>376</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C8" s="39"/>
     </row>
@@ -3833,7 +3864,7 @@
         <v>377</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C9" s="39"/>
     </row>
@@ -3842,19 +3873,19 @@
         <v>3001591</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="44"/>
     </row>
@@ -3863,19 +3894,19 @@
         <v>3001592</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="44"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="44"/>
     </row>
@@ -3884,7 +3915,7 @@
         <v>3001594</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C16" s="39"/>
     </row>
@@ -3893,7 +3924,7 @@
         <v>3001593</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C17" s="39"/>
     </row>
@@ -3902,20 +3933,20 @@
         <v>3001595</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="40"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="40"/>
@@ -3925,7 +3956,7 @@
         <v>3001596</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C21" s="39"/>
     </row>
@@ -3934,79 +3965,79 @@
         <v>450</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C22" s="53"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="44"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="44"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="44"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="44"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C28" s="44"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C29" s="44"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C31" s="44"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4014,25 +4045,25 @@
         <v>445</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C35" s="41"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="10"/>
     </row>
@@ -4041,13 +4072,13 @@
         <v>446</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C39" s="41"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,13 +4086,13 @@
         <v>447</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4100,7 @@
         <v>448</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C43" s="41"/>
     </row>
@@ -4078,13 +4109,13 @@
         <v>449</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4092,13 +4123,13 @@
         <v>451</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C46" s="41"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B47" s="20"/>
     </row>
@@ -4107,7 +4138,7 @@
         <v>452</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C48" s="41"/>
     </row>
@@ -4116,27 +4147,27 @@
         <v>453</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C49" s="41"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="40"/>
@@ -4146,38 +4177,38 @@
         <v>3001560</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C53" s="41"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4185,7 +4216,7 @@
         <v>2006672</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C60" s="39"/>
     </row>
@@ -4194,28 +4225,28 @@
         <v>2006932</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C61" s="41"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4223,43 +4254,43 @@
         <v>1000091</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="40"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="40"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="40"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="40"/>
@@ -4269,25 +4300,25 @@
         <v>1000092</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="40"/>
@@ -4297,7 +4328,7 @@
         <v>378</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C76" s="39"/>
     </row>
@@ -4306,7 +4337,7 @@
         <v>379</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C77" s="39"/>
     </row>
@@ -4315,7 +4346,7 @@
         <v>3001603</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C78" s="39"/>
     </row>
@@ -4324,31 +4355,31 @@
         <v>499</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C79" s="53"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="20"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="20"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="20"/>
     </row>
@@ -4357,13 +4388,13 @@
         <v>2006527</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="40"/>
@@ -4373,19 +4404,19 @@
         <v>380</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C86" s="41"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B87" s="46"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4393,13 +4424,13 @@
         <v>381</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C89" s="39"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="40"/>
@@ -4409,90 +4440,90 @@
         <v>2006603</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C91" s="39"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="40"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="40"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="40"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="40"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="40"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="40"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="40"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="40"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="40"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="18"/>
       <c r="C103" s="40"/>
@@ -4502,32 +4533,32 @@
         <v>3001602</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C104" s="39"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="40"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C106" s="40"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C107" s="40"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="40"/>
@@ -4537,46 +4568,46 @@
         <v>2006978</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C109" s="53"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" s="20"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B112" s="20"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="20"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="20"/>
     </row>
@@ -4585,37 +4616,37 @@
         <v>2006472</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C116" s="41"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="44"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="44"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="44"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="44"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="55"/>
     </row>
@@ -4624,20 +4655,20 @@
         <v>2006604</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C122" s="39"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="40"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="40"/>
@@ -4647,51 +4678,51 @@
         <v>3001606</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B126" s="26"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B127" s="26"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B129" s="26"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B130" s="26"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B131" s="26"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B132" s="26"/>
     </row>
@@ -4700,13 +4731,13 @@
         <v>2007159</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C133" s="41"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B134" s="26"/>
     </row>
@@ -4715,25 +4746,25 @@
         <v>2007160</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C135" s="41"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B136" s="47"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B137" s="26"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B138" s="26"/>
     </row>
@@ -4742,15 +4773,15 @@
         <v>382</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4758,33 +4789,33 @@
         <v>383</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C141" s="41"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,55 +4823,55 @@
         <v>3001601</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C147" s="41"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148" s="20"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B149" s="20"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B150" s="20"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B151" s="20"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B152" s="20"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B153" s="20"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B154" s="20"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B155" s="20"/>
     </row>
@@ -4849,7 +4880,7 @@
         <v>384</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C156" s="43"/>
     </row>
@@ -4858,33 +4889,33 @@
         <v>3001605</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C157" s="43"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4892,25 +4923,25 @@
         <v>503</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C163" s="53"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C164" s="44"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C165" s="44"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C166" s="44"/>
     </row>
@@ -4919,7 +4950,7 @@
         <v>504</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C167" s="43"/>
     </row>
@@ -4928,7 +4959,7 @@
         <v>1000085</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C168" s="43"/>
     </row>
@@ -4937,33 +4968,33 @@
         <v>385</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B170" s="26"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B171" s="26"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B172" s="26"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B173" s="26"/>
     </row>
@@ -4972,31 +5003,31 @@
         <v>2006522</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C174" s="41"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B176" s="26"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B177" s="26"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B178" s="26"/>
     </row>
@@ -5005,30 +5036,30 @@
         <v>2006778</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C179" s="41"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B181" s="25"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5036,25 +5067,25 @@
         <v>408</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C184" s="41"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B185" s="26"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B186" s="20"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5062,23 +5093,23 @@
         <v>105</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C188" s="41"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5086,13 +5117,13 @@
         <v>409</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C192" s="41"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5100,13 +5131,13 @@
         <v>2006779</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C194" s="41"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B195" s="26"/>
     </row>
@@ -5115,31 +5146,31 @@
         <v>3001597</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C196" s="56"/>
     </row>
     <row r="197" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="37" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C197" s="57"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C198" s="44"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C199" s="44"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C200" s="44"/>
     </row>
@@ -5148,7 +5179,7 @@
         <v>1005027</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C201" s="41"/>
     </row>
@@ -5157,13 +5188,13 @@
         <v>3001598</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C202" s="41"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C203" s="44"/>
     </row>
@@ -5172,25 +5203,25 @@
         <v>328</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C204" s="41"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B205" s="26"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B206" s="26"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B207" s="26"/>
     </row>
@@ -5199,73 +5230,73 @@
         <v>3001600</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C208" s="41"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5273,43 +5304,43 @@
         <v>3001599</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C222" s="41"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B223" s="26"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B224" s="26"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B225" s="26"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B226" s="26"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B228" s="26"/>
     </row>
@@ -5318,34 +5349,34 @@
         <v>1000101</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C229" s="41"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B230" s="26"/>
       <c r="C230" s="44"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B231" s="26"/>
       <c r="C231" s="44"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="44"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="44"/>
@@ -5355,49 +5386,49 @@
         <v>1000093</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C234" s="41"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C235" s="44"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C236" s="44"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C237" s="44"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C238" s="44"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C239" s="44"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C240" s="44"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C241" s="44"/>
     </row>
@@ -5406,25 +5437,25 @@
         <v>208</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C242" s="41"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C243" s="44"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C244" s="44"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C245" s="44"/>
     </row>
@@ -5433,19 +5464,19 @@
         <v>3001607</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C246" s="41"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C247" s="44"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C248" s="44"/>
     </row>
@@ -5454,13 +5485,13 @@
         <v>2006884</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C249" s="41"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C250" s="44"/>
     </row>
@@ -5469,13 +5500,13 @@
         <v>3001604</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C251" s="41"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C252" s="44"/>
     </row>
@@ -5484,25 +5515,25 @@
         <v>393</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C253" s="41"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C254" s="44"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C255" s="44"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C256" s="44"/>
     </row>
@@ -5511,7 +5542,7 @@
         <v>3001338</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C257" s="41"/>
     </row>
@@ -5520,37 +5551,37 @@
         <v>3001339</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C258" s="41"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C259" s="44"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C260" s="44"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C261" s="44"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C262" s="44"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C263" s="44"/>
     </row>
@@ -5559,7 +5590,7 @@
         <v>3001330</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C264" s="41"/>
     </row>
@@ -5598,10 +5629,10 @@
         <v>3001331</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C270" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="271" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5609,37 +5640,37 @@
         <v>3001332</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C271" s="41"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C272" s="44"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C273" s="44"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C274" s="44"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C275" s="44"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C276" s="44"/>
     </row>
@@ -5648,27 +5679,27 @@
         <v>3001335</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C278" s="44"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C279" s="44"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C280" s="44"/>
     </row>
@@ -5677,25 +5708,25 @@
         <v>3001336</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C281" s="41"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C282" s="44"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C283" s="44"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C284" s="44"/>
     </row>
@@ -5704,15 +5735,15 @@
         <v>3001337</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C285" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C286" s="44"/>
     </row>
@@ -5721,13 +5752,13 @@
         <v>3001349</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C287" s="41"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C288" s="44"/>
     </row>
@@ -5736,7 +5767,7 @@
         <v>3001344</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C289" s="41"/>
     </row>
@@ -5745,25 +5776,25 @@
         <v>3001345</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C290" s="41"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C291" s="44"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C292" s="44"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C293" s="44"/>
     </row>
@@ -5772,27 +5803,27 @@
         <v>3001347</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C294" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C295" s="44"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C296" s="44"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C297" s="44"/>
     </row>
@@ -5801,21 +5832,21 @@
         <v>3001346</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C298" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C299" s="44"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C300" s="44"/>
     </row>
@@ -5824,25 +5855,25 @@
         <v>3001348</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C301" s="41"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C302" s="44"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C303" s="44"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C304" s="44"/>
     </row>
@@ -5851,25 +5882,25 @@
         <v>3001334</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C305" s="41"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C306" s="44"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C307" s="44"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C308" s="44"/>
     </row>
@@ -5878,37 +5909,37 @@
         <v>1000075</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C309" s="41"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C310" s="44"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C311" s="44"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C312" s="44"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C313" s="44"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C314" s="44"/>
     </row>
@@ -5917,7 +5948,7 @@
         <v>3001350</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C315" s="41"/>
     </row>
@@ -5926,43 +5957,43 @@
         <v>3001354</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C316" s="41"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C317" s="44"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C318" s="44"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C319" s="44"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C320" s="44"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C321" s="44"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B322" s="48"/>
       <c r="C322" s="44"/>
@@ -5972,7 +6003,7 @@
         <v>3001352</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C323" s="41"/>
     </row>
@@ -5981,25 +6012,25 @@
         <v>3001353</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C324" s="41"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B325" s="26"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B326" s="26"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B327" s="26"/>
     </row>
@@ -6008,55 +6039,55 @@
         <v>3001355</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C328" s="53"/>
     </row>
     <row r="329" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="38"/>
     </row>
     <row r="330" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="38"/>
     </row>
     <row r="331" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="38"/>
     </row>
     <row r="332" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="38"/>
     </row>
     <row r="333" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="38"/>
     </row>
     <row r="334" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="38"/>
     </row>
     <row r="335" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="38"/>
@@ -6066,18 +6097,18 @@
         <v>3001356</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C336" s="41"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="339" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6085,31 +6116,31 @@
         <v>3001357</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C339" s="42"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B340" s="26"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B341" s="26"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B342" s="26"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B343" s="26"/>
     </row>
@@ -6118,31 +6149,31 @@
         <v>3001569</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C344" s="41"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C345" s="44"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C346" s="44"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C347" s="44"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C348" s="55"/>
     </row>
@@ -6151,7 +6182,7 @@
         <v>3001570</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C349" s="41"/>
     </row>
@@ -6160,7 +6191,7 @@
         <v>3001571</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C350" s="53"/>
     </row>
@@ -6169,31 +6200,31 @@
         <v>3001574</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C351" s="41"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C352" s="55"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C353" s="44"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C354" s="44"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C355" s="44"/>
     </row>
@@ -6202,26 +6233,26 @@
         <v>3001572</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C356" s="41"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C357" s="55"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="58"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="58"/>
@@ -6231,13 +6262,13 @@
         <v>3001575</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C360" s="41"/>
     </row>
     <row r="361" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="38"/>
@@ -6247,13 +6278,13 @@
         <v>2006400</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C362" s="41"/>
     </row>
     <row r="363" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="38"/>
@@ -6263,68 +6294,68 @@
         <v>1000077</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C364" s="41"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="377" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6332,7 +6363,7 @@
         <v>3001580</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C377" s="41"/>
     </row>
@@ -6341,10 +6372,10 @@
         <v>3001573</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C378" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6352,48 +6383,48 @@
         <v>3001577</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C379" s="41"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6401,18 +6432,18 @@
         <v>3001578</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C388" s="41"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="391" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6420,13 +6451,13 @@
         <v>3001579</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C391" s="41"/>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="393" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6434,20 +6465,20 @@
         <v>3001588</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C393" s="41"/>
     </row>
     <row r="394" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B394" s="49"/>
       <c r="C394" s="38"/>
     </row>
     <row r="395" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B395" s="49"/>
       <c r="C395" s="38"/>
@@ -6457,18 +6488,18 @@
         <v>3001438</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C396" s="53"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6476,75 +6507,75 @@
         <v>3001581</v>
       </c>
       <c r="B399" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C399" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="413" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6552,27 +6583,27 @@
         <v>3001582</v>
       </c>
       <c r="B413" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C413" s="41"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B414" s="21"/>
       <c r="C414" s="44"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B415" s="21"/>
       <c r="C415" s="44"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B416" s="21"/>
       <c r="C416" s="44"/>
@@ -6582,13 +6613,13 @@
         <v>2006674</v>
       </c>
       <c r="B417" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C417" s="41"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B418" s="48"/>
     </row>
@@ -6597,13 +6628,13 @@
         <v>3001358</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C419" s="53"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C420" s="44"/>
     </row>
@@ -6630,7 +6661,7 @@
         <v>3001401</v>
       </c>
       <c r="B424" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C424" s="41"/>
     </row>
@@ -6639,13 +6670,13 @@
         <v>2006690</v>
       </c>
       <c r="B425" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C425" s="41"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="427" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6653,19 +6684,19 @@
         <v>3001540</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C427" s="41"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C428" s="44"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C429" s="44"/>
     </row>
@@ -6674,13 +6705,13 @@
         <v>3001403</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C430" s="41"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="432" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6688,25 +6719,25 @@
         <v>3001404</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C432" s="53"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B433" s="20"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B434" s="20"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B435" s="20"/>
     </row>
@@ -6715,7 +6746,7 @@
         <v>2000337</v>
       </c>
       <c r="B436" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C436" s="41"/>
     </row>
@@ -6724,7 +6755,7 @@
         <v>2006735</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C437" s="41"/>
     </row>
@@ -6733,13 +6764,13 @@
         <v>1000106</v>
       </c>
       <c r="B438" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C438" s="41"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="440" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6747,23 +6778,23 @@
         <v>1000079</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C440" s="41"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6771,49 +6802,49 @@
         <v>3001405</v>
       </c>
       <c r="B444" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C444" s="42"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B445" s="5"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B446" s="5"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B447" s="5"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B448" s="5"/>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B449" s="5"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B450" s="5"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="452" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6821,19 +6852,19 @@
         <v>3001402</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C452" s="53"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C453" s="54"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C454" s="54"/>
     </row>
@@ -6842,19 +6873,19 @@
         <v>3001371</v>
       </c>
       <c r="B455" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C455" s="53"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B456" s="20"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="458" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6862,43 +6893,43 @@
         <v>3001373</v>
       </c>
       <c r="B458" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C458" s="41"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="466" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6906,28 +6937,28 @@
         <v>3001372</v>
       </c>
       <c r="B466" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C466" s="41"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="471" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6935,31 +6966,31 @@
         <v>2006663</v>
       </c>
       <c r="B471" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C471" s="53"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C472" s="59"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C473" s="59"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C474" s="44"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C475" s="44"/>
     </row>
@@ -6968,7 +6999,7 @@
         <v>3001361</v>
       </c>
       <c r="B476" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C476" s="41"/>
     </row>
@@ -6977,13 +7008,13 @@
         <v>3001365</v>
       </c>
       <c r="B477" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C477" s="41"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C478" s="55"/>
     </row>
@@ -6992,13 +7023,13 @@
         <v>2006146</v>
       </c>
       <c r="B479" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C479" s="41"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B480" s="10"/>
     </row>
@@ -7007,13 +7038,13 @@
         <v>3001362</v>
       </c>
       <c r="B481" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C481" s="41"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="483" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7021,7 +7052,7 @@
         <v>3001363</v>
       </c>
       <c r="B483" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C483" s="41"/>
     </row>
@@ -7030,13 +7061,13 @@
         <v>2006664</v>
       </c>
       <c r="B484" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C484" s="41"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="486" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7044,7 +7075,7 @@
         <v>3001364</v>
       </c>
       <c r="B486" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C486" s="41"/>
     </row>
@@ -7053,43 +7084,43 @@
         <v>2006469</v>
       </c>
       <c r="B487" s="23" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C487" s="42"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="495" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7097,13 +7128,13 @@
         <v>2006151</v>
       </c>
       <c r="B495" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C495" s="41"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="497" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7111,7 +7142,7 @@
         <v>3001366</v>
       </c>
       <c r="B497" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C497" s="41"/>
     </row>
@@ -7120,7 +7151,7 @@
         <v>2006665</v>
       </c>
       <c r="B498" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C498" s="41"/>
     </row>
@@ -7129,28 +7160,28 @@
         <v>3001368</v>
       </c>
       <c r="B499" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C499" s="41"/>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7158,7 +7189,7 @@
         <v>2006710</v>
       </c>
       <c r="B504" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C504" s="41"/>
     </row>
@@ -7167,18 +7198,18 @@
         <v>1000099</v>
       </c>
       <c r="B505" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C505" s="41"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="507" spans="1:3" s="35" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B507" s="34"/>
       <c r="C507" s="45"/>
@@ -7188,61 +7219,61 @@
         <v>3001407</v>
       </c>
       <c r="B508" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C508" s="53"/>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C509" s="44"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C510" s="44"/>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C511" s="44"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C512" s="44"/>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C513" s="44"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C514" s="44"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C515" s="44"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C516" s="44"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C517" s="44"/>
     </row>
@@ -7251,18 +7282,18 @@
         <v>3001406</v>
       </c>
       <c r="B518" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C518" s="41"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="521" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7270,48 +7301,48 @@
         <v>3001370</v>
       </c>
       <c r="B521" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C521" s="41"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7319,28 +7350,28 @@
         <v>1000078</v>
       </c>
       <c r="B530" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C530" s="41"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="535" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7348,13 +7379,13 @@
         <v>1000097</v>
       </c>
       <c r="B535" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C535" s="53"/>
     </row>
     <row r="536" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="38"/>
@@ -7364,37 +7395,37 @@
         <v>482</v>
       </c>
       <c r="B537" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C537" s="41"/>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B538" s="26"/>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B539" s="26"/>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B540" s="26"/>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B541" s="26"/>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B542" s="26"/>
     </row>
@@ -7403,7 +7434,7 @@
         <v>1000098</v>
       </c>
       <c r="B543" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C543" s="41"/>
     </row>
@@ -7412,7 +7443,7 @@
         <v>3001375</v>
       </c>
       <c r="B544" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C544" s="53"/>
     </row>
@@ -7430,7 +7461,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C547" s="44"/>
     </row>
@@ -7445,48 +7476,48 @@
         <v>3001376</v>
       </c>
       <c r="B549" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C549" s="53"/>
     </row>
     <row r="550" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="60"/>
     </row>
     <row r="551" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="38"/>
     </row>
     <row r="552" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="38"/>
     </row>
     <row r="553" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="38"/>
     </row>
     <row r="554" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="38"/>
     </row>
     <row r="555" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="38"/>
@@ -7496,18 +7527,18 @@
         <v>3001377</v>
       </c>
       <c r="B556" s="23" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C556" s="41"/>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="559" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7515,24 +7546,24 @@
         <v>3001381</v>
       </c>
       <c r="B559" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C559" s="53"/>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C561" s="44"/>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C562" s="44"/>
     </row>
@@ -7541,7 +7572,7 @@
         <v>3001475</v>
       </c>
       <c r="B563" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C563" s="53"/>
     </row>
@@ -7550,31 +7581,31 @@
         <v>3001379</v>
       </c>
       <c r="B564" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C564" s="41"/>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C565" s="44"/>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C566" s="55"/>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C567" s="55"/>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C568" s="55"/>
     </row>
@@ -7583,7 +7614,7 @@
         <v>3001380</v>
       </c>
       <c r="B569" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C569" s="41"/>
     </row>
@@ -7592,25 +7623,25 @@
         <v>3001383</v>
       </c>
       <c r="B570" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C570" s="41"/>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B571" s="26"/>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B572" s="26"/>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B573" s="26"/>
     </row>
@@ -7619,7 +7650,7 @@
         <v>3001388</v>
       </c>
       <c r="B574" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C574" s="41"/>
     </row>
@@ -7628,7 +7659,7 @@
         <v>487</v>
       </c>
       <c r="B575" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C575" s="41"/>
     </row>
@@ -7637,13 +7668,13 @@
         <v>1000083</v>
       </c>
       <c r="B576" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C576" s="53"/>
     </row>
     <row r="577" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="38"/>
@@ -7653,13 +7684,13 @@
         <v>3001391</v>
       </c>
       <c r="B578" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C578" s="41"/>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="580" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7667,13 +7698,13 @@
         <v>2006148</v>
       </c>
       <c r="B580" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C580" s="41"/>
     </row>
     <row r="581" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="37" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B581" s="25"/>
       <c r="C581" s="38"/>
@@ -7683,18 +7714,18 @@
         <v>3001390</v>
       </c>
       <c r="B582" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C582" s="41"/>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="585" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7702,70 +7733,70 @@
         <v>3001396</v>
       </c>
       <c r="B585" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C585" s="41" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="598" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7773,31 +7804,31 @@
         <v>3001397</v>
       </c>
       <c r="B598" s="23" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C598" s="41"/>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B599" s="20"/>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B600" s="20"/>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B601" s="20"/>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C602" s="44"/>
     </row>
@@ -7806,7 +7837,7 @@
         <v>3001382</v>
       </c>
       <c r="B603" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C603" s="41"/>
     </row>
@@ -7815,26 +7846,26 @@
         <v>483</v>
       </c>
       <c r="B604" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C604" s="53"/>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B605" s="5"/>
       <c r="C605" s="61"/>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C606" s="44"/>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C607" s="44"/>
     </row>
@@ -7843,23 +7874,23 @@
         <v>3001410</v>
       </c>
       <c r="B608" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C608" s="41"/>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="612" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7867,13 +7898,13 @@
         <v>3001412</v>
       </c>
       <c r="B612" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C612" s="41"/>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="614" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7881,33 +7912,33 @@
         <v>3001415</v>
       </c>
       <c r="B614" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C614" s="41"/>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="620" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7915,7 +7946,7 @@
         <v>3001420</v>
       </c>
       <c r="B620" s="23" t="s">
-        <v>902</v>
+        <v>1028</v>
       </c>
       <c r="C620" s="53"/>
     </row>
@@ -7927,229 +7958,234 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C622" s="44"/>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C623" s="44"/>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
-        <v>22</v>
+        <v>940</v>
       </c>
       <c r="C624" s="44"/>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
-        <v>942</v>
+        <v>23</v>
       </c>
       <c r="C625" s="44"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C626" s="44"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C627" s="44"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C628" s="44"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C629" s="44"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C630" s="44"/>
+        <v>603</v>
+      </c>
+      <c r="C630" s="54"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C631" s="44"/>
+        <v>604</v>
+      </c>
+      <c r="C631" s="54"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C632" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="C632" s="54"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C633" s="44"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C634" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="C634" s="44"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C635" s="54"/>
+        <v>33</v>
+      </c>
+      <c r="C635" s="44"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A636" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C636" s="54"/>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A637" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C637" s="44"/>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C638" s="44"/>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A639" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C639" s="44"/>
+      <c r="A636" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C636" s="44"/>
+    </row>
+    <row r="637" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="11">
+        <v>2006765</v>
+      </c>
+      <c r="B637" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="C637" s="41"/>
+    </row>
+    <row r="638" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="11">
+        <v>2006767</v>
+      </c>
+      <c r="B638" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C638" s="41"/>
+    </row>
+    <row r="639" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="11">
+        <v>2006768</v>
+      </c>
+      <c r="B639" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="C639" s="53"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A640" s="14" t="s">
-        <v>590</v>
+      <c r="A640" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C640" s="44"/>
     </row>
-    <row r="641" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A641" s="11">
-        <v>2006765</v>
-      </c>
-      <c r="B641" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="C641" s="41"/>
-    </row>
-    <row r="642" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="11">
-        <v>2006766</v>
-      </c>
-      <c r="B642" s="23" t="s">
-        <v>903</v>
-      </c>
-      <c r="C642" s="41"/>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C641" s="54"/>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C642" s="54"/>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A643" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="A643" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C643" s="54"/>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A644" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A645" s="4" t="s">
-        <v>793</v>
-      </c>
+      <c r="A644" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C644" s="44"/>
+    </row>
+    <row r="645" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="11">
+        <v>2006769</v>
+      </c>
+      <c r="B645" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C645" s="41"/>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A646" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="11">
-        <v>2006767</v>
-      </c>
-      <c r="B647" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="C647" s="41"/>
+      <c r="A646" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="648" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="11">
-        <v>2006768</v>
-      </c>
-      <c r="B648" s="22" t="s">
-        <v>937</v>
-      </c>
-      <c r="C648" s="53"/>
+        <v>2006766</v>
+      </c>
+      <c r="B648" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C648" s="41"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C649" s="44"/>
+      <c r="A649" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A650" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C650" s="54"/>
+      <c r="A650" s="4" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A651" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="C651" s="54"/>
+      <c r="A651" s="4" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A652" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="C652" s="54"/>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A653" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="C653" s="44"/>
-    </row>
-    <row r="654" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A654" s="11">
-        <v>2006769</v>
-      </c>
-      <c r="B654" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="C654" s="41"/>
+      <c r="A652" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="11">
+        <v>546</v>
+      </c>
+      <c r="B653" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C653" s="69" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C654" s="44"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
-        <v>443</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C655" s="44"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
-        <v>444</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C656" s="44"/>
     </row>
     <row r="657" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="11">
         <v>3001435</v>
       </c>
       <c r="B657" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C657" s="41"/>
     </row>
@@ -8158,7 +8194,7 @@
         <v>3001436</v>
       </c>
       <c r="B658" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C658" s="41"/>
     </row>
@@ -8167,20 +8203,20 @@
         <v>3001459</v>
       </c>
       <c r="B659" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C659" s="53"/>
     </row>
     <row r="660" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="38"/>
     </row>
     <row r="661" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="38"/>
@@ -8190,37 +8226,37 @@
         <v>3001439</v>
       </c>
       <c r="B662" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C662" s="41"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C663" s="44"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C664" s="44"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C665" s="44"/>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C666" s="44"/>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C667" s="44"/>
     </row>
@@ -8229,13 +8265,13 @@
         <v>3001440</v>
       </c>
       <c r="B668" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C668" s="41"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="670" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8243,38 +8279,38 @@
         <v>3001441</v>
       </c>
       <c r="B670" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C670" s="41"/>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="677" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8282,13 +8318,13 @@
         <v>3001442</v>
       </c>
       <c r="B677" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C677" s="41"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="679" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8296,25 +8332,25 @@
         <v>3001443</v>
       </c>
       <c r="B679" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C679" s="41"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B680" s="26"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B681" s="26"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B682" s="26"/>
     </row>
@@ -8323,23 +8359,23 @@
         <v>3001446</v>
       </c>
       <c r="B683" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C683" s="41"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="687" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8347,13 +8383,13 @@
         <v>3001447</v>
       </c>
       <c r="B687" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C687" s="41"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="689" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8361,31 +8397,31 @@
         <v>3001448</v>
       </c>
       <c r="B689" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C689" s="41"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B690" s="26"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B691" s="26"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B692" s="26"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B693" s="26"/>
     </row>
@@ -8394,13 +8430,13 @@
         <v>3001449</v>
       </c>
       <c r="B694" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C694" s="41"/>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B695" s="26"/>
     </row>
@@ -8409,7 +8445,7 @@
         <v>3001450</v>
       </c>
       <c r="B696" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C696" s="41"/>
     </row>
@@ -8418,7 +8454,7 @@
         <v>3001452</v>
       </c>
       <c r="B697" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C697" s="41"/>
     </row>
@@ -8427,7 +8463,7 @@
         <v>3001453</v>
       </c>
       <c r="B698" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C698" s="41"/>
     </row>
@@ -8436,31 +8472,31 @@
         <v>3001451</v>
       </c>
       <c r="B699" s="23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C699" s="41"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B700" s="26"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B701" s="26"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B702" s="26"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B703" s="26"/>
     </row>
@@ -8469,43 +8505,43 @@
         <v>3001454</v>
       </c>
       <c r="B704" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C704" s="41"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B705" s="26"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B706" s="26"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B707" s="26"/>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B708" s="26"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B709" s="26"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B710" s="26"/>
     </row>
@@ -8514,31 +8550,31 @@
         <v>3001287</v>
       </c>
       <c r="B711" s="23" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C711" s="53"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C712" s="59"/>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C713" s="59"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C714" s="59"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C715" s="59"/>
     </row>
@@ -8547,7 +8583,7 @@
         <v>3001295</v>
       </c>
       <c r="B716" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C716" s="41"/>
     </row>
@@ -8556,7 +8592,7 @@
         <v>2007248</v>
       </c>
       <c r="B717" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C717" s="41"/>
     </row>
@@ -8565,20 +8601,20 @@
         <v>3001305</v>
       </c>
       <c r="B718" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C718" s="41"/>
     </row>
     <row r="719" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A719" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="38"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="721" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8586,18 +8622,18 @@
         <v>3001306</v>
       </c>
       <c r="B721" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C721" s="41"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="723" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A723" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="38"/>
@@ -8607,50 +8643,50 @@
         <v>3001307</v>
       </c>
       <c r="B724" s="23" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C724" s="41"/>
     </row>
     <row r="725" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A725" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="38"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="733" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8658,33 +8694,33 @@
         <v>3001308</v>
       </c>
       <c r="B733" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C733" s="41"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="739" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8692,28 +8728,28 @@
         <v>3001309</v>
       </c>
       <c r="B739" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C739" s="41"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="744" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8721,7 +8757,7 @@
         <v>2006485</v>
       </c>
       <c r="B744" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C744" s="41"/>
     </row>
@@ -8737,13 +8773,13 @@
         <v>3001304</v>
       </c>
       <c r="B746" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C746" s="41"/>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="748" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8751,49 +8787,49 @@
         <v>3001310</v>
       </c>
       <c r="B748" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C748" s="41"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C755" s="62"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C756" s="62"/>
     </row>
@@ -8802,39 +8838,39 @@
         <v>3001312</v>
       </c>
       <c r="B757" s="23" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C757" s="41"/>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B758" s="5"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="764" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8842,7 +8878,7 @@
         <v>4000325</v>
       </c>
       <c r="B764" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C764" s="41"/>
     </row>
@@ -8851,7 +8887,7 @@
         <v>3001315</v>
       </c>
       <c r="B765" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C765" s="53"/>
     </row>
@@ -8872,13 +8908,13 @@
         <v>3001316</v>
       </c>
       <c r="B768" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C768" s="41"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="770" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8886,18 +8922,18 @@
         <v>3001317</v>
       </c>
       <c r="B770" s="23" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C770" s="41"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="773" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8905,18 +8941,18 @@
         <v>3001318</v>
       </c>
       <c r="B773" s="22" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C773" s="41"/>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="776" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8924,13 +8960,13 @@
         <v>3001319</v>
       </c>
       <c r="B776" s="23" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C776" s="41"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="778" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8938,7 +8974,7 @@
         <v>3001320</v>
       </c>
       <c r="B778" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C778" s="41"/>
     </row>
@@ -8947,50 +8983,50 @@
         <v>3001321</v>
       </c>
       <c r="B779" s="51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C779" s="50" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="788" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8998,7 +9034,7 @@
         <v>3001322</v>
       </c>
       <c r="B788" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C788" s="41"/>
     </row>
@@ -9007,13 +9043,13 @@
         <v>3001325</v>
       </c>
       <c r="B789" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C789" s="41"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="791" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9021,38 +9057,38 @@
         <v>3001326</v>
       </c>
       <c r="B791" s="23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C791" s="41"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="798" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9060,15 +9096,15 @@
         <v>3001327</v>
       </c>
       <c r="B798" s="23" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C798" s="41" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C799" s="44"/>
     </row>
@@ -9077,13 +9113,13 @@
         <v>3001477</v>
       </c>
       <c r="B800" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C800" s="41"/>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C801" s="44"/>
     </row>
@@ -9092,28 +9128,28 @@
         <v>3001485</v>
       </c>
       <c r="B802" s="23" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C802" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="803" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C803" s="38" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="806" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9121,19 +9157,19 @@
         <v>3001484</v>
       </c>
       <c r="B806" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C806" s="41"/>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B807" s="26"/>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B808" s="26"/>
     </row>
@@ -9142,13 +9178,13 @@
         <v>3001486</v>
       </c>
       <c r="B809" s="23" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C809" s="41"/>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="811" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9156,13 +9192,13 @@
         <v>2006484</v>
       </c>
       <c r="B811" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C811" s="41"/>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="813" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9170,13 +9206,13 @@
         <v>4000368</v>
       </c>
       <c r="B813" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C813" s="41"/>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="815" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9184,7 +9220,7 @@
         <v>1000141</v>
       </c>
       <c r="B815" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C815" s="41"/>
     </row>
@@ -9193,28 +9229,28 @@
         <v>2000336</v>
       </c>
       <c r="B816" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C816" s="41"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="821" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9222,18 +9258,18 @@
         <v>3001491</v>
       </c>
       <c r="B821" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C821" s="41"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="824" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9241,25 +9277,25 @@
         <v>3001492</v>
       </c>
       <c r="B824" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C824" s="41"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B825" s="26"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B826" s="26"/>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B827" s="26"/>
     </row>
@@ -9268,25 +9304,25 @@
         <v>2000435</v>
       </c>
       <c r="B828" s="23" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C828" s="41"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B829" s="26"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B830" s="26"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B831" s="26"/>
     </row>
@@ -9295,18 +9331,18 @@
         <v>3001489</v>
       </c>
       <c r="B832" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C832" s="41"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="835" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9314,7 +9350,7 @@
         <v>3001493</v>
       </c>
       <c r="B835" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C835" s="41"/>
     </row>
@@ -9323,13 +9359,13 @@
         <v>3001494</v>
       </c>
       <c r="B836" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C836" s="41"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B837" s="26"/>
     </row>
@@ -9338,7 +9374,7 @@
         <v>3001495</v>
       </c>
       <c r="B838" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C838" s="41"/>
     </row>
@@ -9347,7 +9383,7 @@
         <v>2006739</v>
       </c>
       <c r="B839" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C839" s="41"/>
     </row>
@@ -9356,13 +9392,13 @@
         <v>3001498</v>
       </c>
       <c r="B840" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C840" s="41"/>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="842" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9370,20 +9406,20 @@
         <v>3001501</v>
       </c>
       <c r="B842" s="23" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C842" s="53"/>
     </row>
     <row r="843" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B843" s="20"/>
       <c r="C843" s="38"/>
     </row>
     <row r="844" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B844" s="20"/>
       <c r="C844" s="38"/>
@@ -9393,20 +9429,20 @@
         <v>3001502</v>
       </c>
       <c r="B845" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C845" s="53"/>
     </row>
     <row r="846" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B846" s="20"/>
       <c r="C846" s="38"/>
     </row>
     <row r="847" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B847" s="20"/>
       <c r="C847" s="38"/>
@@ -9416,7 +9452,7 @@
         <v>2006709</v>
       </c>
       <c r="B848" s="23" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C848" s="41"/>
     </row>
@@ -9425,13 +9461,13 @@
         <v>2006708</v>
       </c>
       <c r="B849" s="23" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C849" s="41"/>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="851" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9439,23 +9475,23 @@
         <v>3001504</v>
       </c>
       <c r="B851" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C851" s="41"/>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="855" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9463,13 +9499,13 @@
         <v>3001505</v>
       </c>
       <c r="B855" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C855" s="41"/>
     </row>
     <row r="856" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="857" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9477,13 +9513,13 @@
         <v>3001506</v>
       </c>
       <c r="B857" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C857" s="41"/>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B858" s="26"/>
     </row>
@@ -9492,7 +9528,7 @@
         <v>3001507</v>
       </c>
       <c r="B859" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C859" s="41"/>
     </row>
@@ -9501,36 +9537,36 @@
         <v>3001508</v>
       </c>
       <c r="B860" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C860" s="41"/>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B861" s="26"/>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B863" s="26"/>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B864" s="26"/>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B865" s="26"/>
     </row>
@@ -9539,18 +9575,18 @@
         <v>3001509</v>
       </c>
       <c r="B866" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C866" s="41"/>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="869" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9558,18 +9594,18 @@
         <v>1000142</v>
       </c>
       <c r="B869" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C869" s="41"/>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="872" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9577,13 +9613,13 @@
         <v>3001536</v>
       </c>
       <c r="B872" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C872" s="41"/>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="874" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9591,7 +9627,7 @@
         <v>3001542</v>
       </c>
       <c r="B874" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C874" s="41"/>
     </row>
@@ -9600,55 +9636,55 @@
         <v>2006384</v>
       </c>
       <c r="B875" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C875" s="41"/>
     </row>
     <row r="876" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B876" s="20"/>
       <c r="C876" s="9"/>
     </row>
     <row r="877" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" s="9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B877" s="20"/>
       <c r="C877" s="9"/>
     </row>
     <row r="878" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" s="9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B878" s="20"/>
       <c r="C878" s="9"/>
     </row>
     <row r="879" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A879" s="9" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B879" s="20"/>
       <c r="C879" s="9"/>
     </row>
     <row r="880" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A880" s="9" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B880" s="20"/>
       <c r="C880" s="9"/>
     </row>
     <row r="881" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A881" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B881" s="20"/>
       <c r="C881" s="9"/>
     </row>
     <row r="882" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A882" s="9" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B882" s="20"/>
       <c r="C882" s="9"/>
@@ -9658,13 +9694,13 @@
         <v>1000110</v>
       </c>
       <c r="B883" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C883" s="41"/>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="885" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9672,34 +9708,34 @@
         <v>3001519</v>
       </c>
       <c r="B885" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C885" s="53"/>
     </row>
     <row r="886" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B886" s="20"/>
       <c r="C886" s="38"/>
     </row>
     <row r="887" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B887" s="20"/>
       <c r="C887" s="38"/>
     </row>
     <row r="888" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B888" s="20"/>
       <c r="C888" s="38"/>
     </row>
     <row r="889" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B889" s="20"/>
       <c r="C889" s="38"/>
@@ -9709,7 +9745,7 @@
         <v>3001551</v>
       </c>
       <c r="B890" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C890" s="41"/>
     </row>
@@ -9718,34 +9754,34 @@
         <v>3001545</v>
       </c>
       <c r="B891" s="23" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C891" s="41"/>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B893" s="26"/>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="897" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9753,23 +9789,23 @@
         <v>3001552</v>
       </c>
       <c r="B897" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C897" s="41"/>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="901" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9777,18 +9813,18 @@
         <v>3001563</v>
       </c>
       <c r="B901" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C901" s="41"/>
     </row>
     <row r="902" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="904" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9796,25 +9832,25 @@
         <v>3001557</v>
       </c>
       <c r="B904" s="23" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C904" s="41"/>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C905" s="44"/>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C906" s="44"/>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C907" s="44"/>
     </row>
@@ -9823,13 +9859,13 @@
         <v>3001566</v>
       </c>
       <c r="B908" s="23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C908" s="41"/>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="910" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9837,13 +9873,13 @@
         <v>3001565</v>
       </c>
       <c r="B910" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C910" s="41"/>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="912" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9851,18 +9887,18 @@
         <v>3001561</v>
       </c>
       <c r="B912" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C912" s="41"/>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="915" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9870,33 +9906,33 @@
         <v>3001530</v>
       </c>
       <c r="B915" s="23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C915" s="53" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C916" s="44"/>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C917" s="44"/>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C918" s="44"/>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C919" s="44"/>
     </row>
@@ -9905,20 +9941,20 @@
         <v>3001521</v>
       </c>
       <c r="B920" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C920" s="53"/>
     </row>
     <row r="921" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A921" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B921" s="20"/>
       <c r="C921" s="38"/>
     </row>
     <row r="922" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A922" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B922" s="20"/>
       <c r="C922" s="38"/>
@@ -9928,13 +9964,13 @@
         <v>3001532</v>
       </c>
       <c r="B923" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C923" s="41"/>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="925" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9942,19 +9978,19 @@
         <v>3001520</v>
       </c>
       <c r="B925" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C925" s="41"/>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B926" s="26"/>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B927" s="26"/>
     </row>
@@ -9963,7 +9999,7 @@
         <v>3001525</v>
       </c>
       <c r="B928" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C928" s="41"/>
     </row>
@@ -9972,515 +10008,523 @@
         <v>506</v>
       </c>
       <c r="B929" s="22" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C929" s="42"/>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" s="9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A935" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="936" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A936" s="11">
+      <c r="A935" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C935" s="70" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A936" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="11">
         <v>3001527</v>
       </c>
-      <c r="B936" s="23" t="s">
-        <v>978</v>
-      </c>
-      <c r="C936" s="42"/>
-    </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A937" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="B937" s="23" t="s">
+        <v>976</v>
+      </c>
+      <c r="C937" s="42"/>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" s="2" t="s">
-        <v>966</v>
+        <v>433</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="940" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="11">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A940" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="11">
         <v>3001528</v>
       </c>
-      <c r="B940" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C940" s="41"/>
-    </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A941" s="2" t="s">
-        <v>469</v>
-      </c>
+      <c r="B941" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C941" s="41"/>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="944" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A944" s="11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A944" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="11">
         <v>3001529</v>
       </c>
-      <c r="B944" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="C944" s="42"/>
-    </row>
-    <row r="945" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A945" s="11">
+      <c r="B945" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C945" s="42"/>
+    </row>
+    <row r="946" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A946" s="11">
         <v>3001549</v>
       </c>
-      <c r="B945" s="23" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C945" s="42" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A946" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="947" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A947" s="11">
+      <c r="B946" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C946" s="42" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A947" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="11">
         <v>3001547</v>
       </c>
-      <c r="B947" s="23" t="s">
+      <c r="B948" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C948" s="41"/>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A949" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C947" s="41"/>
-    </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A948" s="9" t="s">
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A950" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A949" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="950" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A950" s="11">
+    <row r="951" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="11">
         <v>3001460</v>
       </c>
-      <c r="B950" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="C950" s="64"/>
-    </row>
-    <row r="951" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A951" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B951" s="20"/>
-      <c r="C951" s="65"/>
+      <c r="B951" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="C951" s="64"/>
     </row>
     <row r="952" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A952" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C952" s="38"/>
+        <v>159</v>
+      </c>
+      <c r="B952" s="20"/>
+      <c r="C952" s="65"/>
     </row>
     <row r="953" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A953" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B953" s="20"/>
+        <v>160</v>
+      </c>
       <c r="C953" s="38"/>
     </row>
     <row r="954" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A954" s="9" t="s">
-        <v>50</v>
+      <c r="A954" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="B954" s="20"/>
       <c r="C954" s="38"/>
     </row>
     <row r="955" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A955" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B955" s="20"/>
       <c r="C955" s="38"/>
     </row>
     <row r="956" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A956" s="31" t="s">
-        <v>164</v>
+      <c r="A956" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B956" s="20"/>
       <c r="C956" s="38"/>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A957" s="4" t="s">
-        <v>165</v>
-      </c>
+    <row r="957" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B957" s="20"/>
+      <c r="C957" s="38"/>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A958" s="2" t="s">
-        <v>166</v>
+      <c r="A958" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A960" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A961" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A960" s="4" t="s">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A962" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A961" s="2" t="s">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A963" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A962" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="11">
+    <row r="964" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="11">
         <v>3001461</v>
       </c>
-      <c r="B963" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="C963" s="41"/>
-    </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A964" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="B964" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C964" s="41"/>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="966" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="11">
-        <v>3001463</v>
-      </c>
-      <c r="B966" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="C966" s="41"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A966" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="967" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A967" s="11">
-        <v>3001467</v>
+        <v>3001463</v>
       </c>
       <c r="B967" s="23" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="C967" s="41"/>
     </row>
     <row r="968" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A968" s="11">
+        <v>3001467</v>
+      </c>
+      <c r="B968" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="C968" s="41"/>
+    </row>
+    <row r="969" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="11">
         <v>3001471</v>
       </c>
-      <c r="B968" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C968" s="42" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="969" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B969" s="8"/>
-      <c r="C969" s="38"/>
+      <c r="B969" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C969" s="42" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="970" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B970" s="8"/>
       <c r="C970" s="38"/>
     </row>
     <row r="971" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B971" s="8"/>
       <c r="C971" s="38"/>
     </row>
-    <row r="972" spans="1:3" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A972" s="11">
+    <row r="972" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B972" s="8"/>
+      <c r="C972" s="38"/>
+    </row>
+    <row r="973" spans="1:3" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A973" s="11">
         <v>3001468</v>
       </c>
-      <c r="B972" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="C972" s="42" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="973" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="11">
+      <c r="B973" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="C973" s="42" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="11">
         <v>3001470</v>
       </c>
-      <c r="B973" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="C973" s="63"/>
-    </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A974" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B974" s="5"/>
-      <c r="C974" s="44"/>
+      <c r="B974" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C974" s="63"/>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A975" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A975" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B975" s="5"/>
       <c r="C975" s="44"/>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C976" s="55"/>
-    </row>
-    <row r="977" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="11">
+        <v>103</v>
+      </c>
+      <c r="C976" s="44"/>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A977" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C977" s="55"/>
+    </row>
+    <row r="978" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="11">
         <v>3001469</v>
       </c>
-      <c r="B977" s="23" t="s">
-        <v>979</v>
-      </c>
-      <c r="C977" s="42"/>
-    </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A978" s="2" t="s">
-        <v>970</v>
-      </c>
+      <c r="B978" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="C978" s="42"/>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" s="2" t="s">
-        <v>1025</v>
+        <v>968</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="981" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="11">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A981" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="11">
         <v>3001614</v>
       </c>
-      <c r="B981" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="C981" s="53"/>
-    </row>
-    <row r="982" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A982" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B982" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="C982" s="53"/>
+    </row>
+    <row r="983" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C983" s="44"/>
-    </row>
-    <row r="984" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A984" s="11">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A984" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C984" s="44"/>
+    </row>
+    <row r="985" spans="1:3" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A985" s="11">
         <v>3001611</v>
       </c>
-      <c r="B984" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="C984" s="42" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="985" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="2" t="s">
-        <v>973</v>
+      <c r="B985" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C985" s="42" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="986" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="987" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="990" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A990" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A991" s="11">
         <v>3001613</v>
       </c>
-      <c r="B990" s="23" t="s">
-        <v>926</v>
-      </c>
-      <c r="C990" s="41"/>
-    </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A991" s="8" t="s">
-        <v>527</v>
-      </c>
+      <c r="B991" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="C991" s="41"/>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A993" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="994" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A994" s="28">
+      <c r="A993" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A994" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A995" s="28">
         <v>3001619</v>
       </c>
-      <c r="B994" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="C994" s="41"/>
-    </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A995" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="996" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A996" s="11">
+      <c r="B995" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="C995" s="41"/>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A996" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A997" s="11">
         <v>3001623</v>
       </c>
-      <c r="B996" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="C996" s="41"/>
-    </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A997" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="B997" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="C997" s="41"/>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A998" s="2" t="s">
+      <c r="A998" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="B999" s="47"/>
-    </row>
-    <row r="1000" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="28">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1000" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1000" s="47"/>
+    </row>
+    <row r="1001" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="28">
         <v>3001617</v>
       </c>
-      <c r="B1000" s="23" t="s">
-        <v>928</v>
-      </c>
-      <c r="C1000" s="41"/>
-    </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1001" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="B1001" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1001" s="41"/>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1002" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1002" s="26"/>
+      <c r="A1002" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1003" s="26"/>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1004" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1004" s="26"/>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1005" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B1003" s="26"/>
-    </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1004" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1005" s="9" t="s">
+    </row>
+    <row r="1006" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B1006" s="20"/>
+      <c r="C1006" s="38"/>
+    </row>
+    <row r="1007" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="B1005" s="20"/>
-      <c r="C1005" s="38"/>
-    </row>
-    <row r="1006" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1006" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="B1006" s="25"/>
-      <c r="C1006" s="38"/>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1011" s="3"/>
-      <c r="B1011" s="5"/>
+      <c r="B1007" s="25"/>
+      <c r="C1007" s="38"/>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" s="3"/>
+      <c r="B1012" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A499" r:id="rId1" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/FoodPackaging/BoxesCartonsLiners/Take-OutContainers/index.htm"/>
@@ -10621,7 +10665,7 @@
     <hyperlink ref="A91" r:id="rId136" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HouseholdItems/Bedroom/ClothesShoes/index.htm"/>
     <hyperlink ref="A109" r:id="rId137" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HouseholdItems/GarageOutdoor/BicyclesBikeParts/index.htm"/>
     <hyperlink ref="A116" r:id="rId138" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HouseholdItems/GarageOutdoor/ChildCarSeats/index.htm"/>
-    <hyperlink ref="A648" r:id="rId139" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/OxygenAcetyleneTanks/index.htm"/>
+    <hyperlink ref="A639" r:id="rId139" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/OxygenAcetyleneTanks/index.htm"/>
     <hyperlink ref="A765" r:id="rId140" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/Aluminum/index.htm"/>
     <hyperlink ref="A620" r:id="rId141" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/AmmunitionGunsFireworks/index.htm"/>
     <hyperlink ref="A711" r:id="rId142" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/BarrelsDrums/index.htm"/>
@@ -10636,7 +10680,7 @@
     <hyperlink ref="A580" r:id="rId151" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/FoodPackaging/PlasticStyrofoamContainers/EggCartons/index.htm"/>
     <hyperlink ref="A612" r:id="rId152" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/GlassCeramics/EyeGlasses/index.htm"/>
     <hyperlink ref="A816" r:id="rId153" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/FacialTissue/index.htm"/>
-    <hyperlink ref="A642" r:id="rId154" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/GasCanistersSmall/index.htm"/>
+    <hyperlink ref="A648" r:id="rId154" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/GasCanistersSmall/index.htm"/>
     <hyperlink ref="A821" r:id="rId155" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/GiftWrap/index.htm"/>
     <hyperlink ref="A614" r:id="rId156" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/GlassCeramics/GlassCeramicHouseholdItems/index.htm"/>
     <hyperlink ref="A773" r:id="rId157" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/GoldSilverEtc/index.htm"/>
@@ -10687,83 +10731,84 @@
     <hyperlink ref="A585" r:id="rId202" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/FoodPackaging/PlasticStyrofoamContainers/PlasticCupsUtensils/index.htm"/>
     <hyperlink ref="A598" r:id="rId203" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/PeanutButterMayonnaiseJars/index.htm"/>
     <hyperlink ref="A603" r:id="rId204" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/FoodPackaging/EggCartons/index.htm"/>
-    <hyperlink ref="A641" r:id="rId205" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/FireExtinguishers/index.htm"/>
-    <hyperlink ref="A647" r:id="rId206" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/HeliumTanks/index.htm"/>
-    <hyperlink ref="A654" r:id="rId207" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/PropaneTanks/index.htm"/>
-    <hyperlink ref="A657" r:id="rId208" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Anti-Freeze/index.htm"/>
-    <hyperlink ref="A658" r:id="rId209" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Bleach/index.htm"/>
-    <hyperlink ref="A668" r:id="rId210" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Gasoline/index.htm"/>
-    <hyperlink ref="A677" r:id="rId211" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/HobbyChemicals/index.htm"/>
-    <hyperlink ref="A679" r:id="rId212" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/MotorOil/index.htm"/>
-    <hyperlink ref="A687" r:id="rId213" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Solvents/index.htm"/>
-    <hyperlink ref="A696" r:id="rId214" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/MotorOilContainers/index.htm"/>
-    <hyperlink ref="A697" r:id="rId215" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/OilFilters/index.htm"/>
-    <hyperlink ref="A698" r:id="rId216" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/OilTanks/index.htm"/>
-    <hyperlink ref="A716" r:id="rId217" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/Cans/PaintCans/index.htm"/>
-    <hyperlink ref="A717" r:id="rId218" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/CompressedGasContainers/CO2Chargers/index.htm"/>
-    <hyperlink ref="A718" r:id="rId219" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/FoilPiePans/index.htm"/>
-    <hyperlink ref="A721" r:id="rId220" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/JarLids/index.htm"/>
-    <hyperlink ref="A739" r:id="rId221" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/SmallAppliances/index.htm"/>
-    <hyperlink ref="A744" r:id="rId222" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/WineBottleFoil/index.htm"/>
-    <hyperlink ref="A746" r:id="rId223" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/AluminumFoil/index.htm"/>
-    <hyperlink ref="A764" r:id="rId224" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/LicensePlates/index.htm"/>
-    <hyperlink ref="A768" r:id="rId225" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/CastIron/index.htm"/>
-    <hyperlink ref="A778" r:id="rId226" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/Lead/index.htm"/>
-    <hyperlink ref="A788" r:id="rId227" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/StainlessSteel/index.htm"/>
-    <hyperlink ref="A798" r:id="rId228" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/WireCable/index.htm"/>
-    <hyperlink ref="A800" r:id="rId229" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Cardboard/Foamcore/index.htm"/>
-    <hyperlink ref="A802" r:id="rId230" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/MilkJuiceCartons/index.htm"/>
-    <hyperlink ref="A809" r:id="rId231" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/PaperCupsCoffeeCups/index.htm"/>
-    <hyperlink ref="A811" r:id="rId232" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/TissueBoxes/index.htm"/>
-    <hyperlink ref="A813" r:id="rId233" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Food-soiledpaper/index.htm"/>
-    <hyperlink ref="A815" r:id="rId234" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/Envelopes/index.htm"/>
-    <hyperlink ref="A832" r:id="rId235" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperBags/index.htm"/>
-    <hyperlink ref="A839" r:id="rId236" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/Receipts/index.htm"/>
-    <hyperlink ref="A840" r:id="rId237" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/ShreddedPaper/index.htm"/>
-    <hyperlink ref="A848" r:id="rId238" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/PaperPrintedReading/EnvelopesBubblepack/index.htm"/>
-    <hyperlink ref="A849" r:id="rId239" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/PaperPrintedReading/EnvelopesTyvek/index.htm"/>
-    <hyperlink ref="A874" r:id="rId240" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Bags/NewspaperBags/index.htm"/>
-    <hyperlink ref="A563" r:id="rId241" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Cardboard/CardboardCorrugated/index.htm"/>
-    <hyperlink ref="A835" r:id="rId242" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperPunchHoles/index.htm"/>
-    <hyperlink ref="A838" r:id="rId243" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperTowelRolls/index.htm"/>
-    <hyperlink ref="A915" r:id="rId244" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/AspirinContainers/index.htm"/>
-    <hyperlink ref="A885" r:id="rId245" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/BlisterPackages/index.htm"/>
-    <hyperlink ref="A973" r:id="rId246" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Vehicles/index.htm"/>
-    <hyperlink ref="A950" r:id="rId247" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/EnginesMotorsandCarParts/index.htm"/>
-    <hyperlink ref="A908" r:id="rId248" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/EyeglassFrames/index.htm"/>
-    <hyperlink ref="A963" r:id="rId249" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Flares/index.htm"/>
-    <hyperlink ref="A891" r:id="rId250" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/FoamBlocksPackingSheets/index.htm"/>
-    <hyperlink ref="A1000" r:id="rId251" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/LeavesNon-WoodyYardwaste/index.htm"/>
-    <hyperlink ref="A967" r:id="rId252" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/MotorOilFilters/index.htm"/>
-    <hyperlink ref="A897" r:id="rId253" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/PackingPeanuts/index.htm"/>
-    <hyperlink ref="A925" r:id="rId254" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PesticideContainers/index.htm"/>
-    <hyperlink ref="A936" r:id="rId255" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PrescriptionDrugContainers/index.htm"/>
-    <hyperlink ref="A984" r:id="rId256" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/ReusableLumber/index.htm"/>
-    <hyperlink ref="A940" r:id="rId257" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/ShampooLotionBottles/index.htm"/>
-    <hyperlink ref="A912" r:id="rId258" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/ShrinkWrap/index.htm"/>
-    <hyperlink ref="A947" r:id="rId259" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Styrofoam/StyrofoamBlocks/index.htm"/>
-    <hyperlink ref="A945" r:id="rId260" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Styrofoam/StyrofoamCupsUtensils/index.htm"/>
-    <hyperlink ref="A994" r:id="rId261" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/GrassClipingsSod/index.htm"/>
-    <hyperlink ref="A981" r:id="rId262" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/ChristmasTrees/index.htm"/>
-    <hyperlink ref="A920" r:id="rId263" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/Buckets/index.htm"/>
-    <hyperlink ref="A990" r:id="rId264" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/WoodScrapsShavings/index.htm"/>
-    <hyperlink ref="A968" r:id="rId265" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/OtherVehicleFluids/index.htm"/>
-    <hyperlink ref="A875" r:id="rId266" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/WithRecycleNumbers/index.htm"/>
-    <hyperlink ref="A883" r:id="rId267" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/6-packPlasticRings/index.htm"/>
-    <hyperlink ref="A890" r:id="rId268" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/BubbleWrap/index.htm"/>
-    <hyperlink ref="A901" r:id="rId269" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/BottleCaps/index.htm"/>
-    <hyperlink ref="A904" r:id="rId270" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/CDCases/index.htm"/>
-    <hyperlink ref="A910" r:id="rId271" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/PrinterCartridges/index.htm"/>
-    <hyperlink ref="A923" r:id="rId272" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/LaundryDetergentJugs/index.htm"/>
-    <hyperlink ref="A928" r:id="rId273" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PlasticJugs/index.htm"/>
-    <hyperlink ref="A944" r:id="rId274" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/VitaminBottles/index.htm"/>
-    <hyperlink ref="A966" r:id="rId275" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/GasCans/index.htm"/>
-    <hyperlink ref="A972" r:id="rId276" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Tires/index.htm"/>
-    <hyperlink ref="A977" r:id="rId277" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/VehicleBatteries/index.htm"/>
-    <hyperlink ref="A996" r:id="rId278" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/HousePlants/index.htm"/>
-    <hyperlink ref="A929" r:id="rId279" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/PlasticTubs/index.htm"/>
+    <hyperlink ref="A637" r:id="rId205" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/FireExtinguishers/index.htm"/>
+    <hyperlink ref="A638" r:id="rId206" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/HeliumTanks/index.htm"/>
+    <hyperlink ref="A645" r:id="rId207" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/CompressedGasContainers/PropaneTanks/index.htm"/>
+    <hyperlink ref="A658" r:id="rId208" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Bleach/index.htm"/>
+    <hyperlink ref="A668" r:id="rId209" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Gasoline/index.htm"/>
+    <hyperlink ref="A677" r:id="rId210" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/HobbyChemicals/index.htm"/>
+    <hyperlink ref="A679" r:id="rId211" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/MotorOil/index.htm"/>
+    <hyperlink ref="A687" r:id="rId212" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Solvents/index.htm"/>
+    <hyperlink ref="A696" r:id="rId213" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/MotorOilContainers/index.htm"/>
+    <hyperlink ref="A697" r:id="rId214" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/OilFilters/index.htm"/>
+    <hyperlink ref="A698" r:id="rId215" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/OilTanks/index.htm"/>
+    <hyperlink ref="A716" r:id="rId216" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/Cans/PaintCans/index.htm"/>
+    <hyperlink ref="A717" r:id="rId217" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/CompressedGasContainers/CO2Chargers/index.htm"/>
+    <hyperlink ref="A718" r:id="rId218" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/FoilPiePans/index.htm"/>
+    <hyperlink ref="A721" r:id="rId219" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/JarLids/index.htm"/>
+    <hyperlink ref="A739" r:id="rId220" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/SmallAppliances/index.htm"/>
+    <hyperlink ref="A744" r:id="rId221" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/WineBottleFoil/index.htm"/>
+    <hyperlink ref="A746" r:id="rId222" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/FromtheKitchen/AluminumFoil/index.htm"/>
+    <hyperlink ref="A764" r:id="rId223" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/LicensePlates/index.htm"/>
+    <hyperlink ref="A768" r:id="rId224" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/CastIron/index.htm"/>
+    <hyperlink ref="A778" r:id="rId225" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/Lead/index.htm"/>
+    <hyperlink ref="A788" r:id="rId226" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/MetalsbyType/StainlessSteel/index.htm"/>
+    <hyperlink ref="A798" r:id="rId227" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/MetalandMetalItems/WireCable/index.htm"/>
+    <hyperlink ref="A800" r:id="rId228" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Cardboard/Foamcore/index.htm"/>
+    <hyperlink ref="A802" r:id="rId229" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/MilkJuiceCartons/index.htm"/>
+    <hyperlink ref="A809" r:id="rId230" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/PaperCupsCoffeeCups/index.htm"/>
+    <hyperlink ref="A811" r:id="rId231" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/ContainersBoxesCartons/TissueBoxes/index.htm"/>
+    <hyperlink ref="A813" r:id="rId232" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Food-soiledpaper/index.htm"/>
+    <hyperlink ref="A815" r:id="rId233" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/Envelopes/index.htm"/>
+    <hyperlink ref="A832" r:id="rId234" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperBags/index.htm"/>
+    <hyperlink ref="A839" r:id="rId235" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/Receipts/index.htm"/>
+    <hyperlink ref="A840" r:id="rId236" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/ShreddedPaper/index.htm"/>
+    <hyperlink ref="A848" r:id="rId237" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/PaperPrintedReading/EnvelopesBubblepack/index.htm"/>
+    <hyperlink ref="A849" r:id="rId238" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/PaperPrintedReading/EnvelopesTyvek/index.htm"/>
+    <hyperlink ref="A874" r:id="rId239" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Bags/NewspaperBags/index.htm"/>
+    <hyperlink ref="A563" r:id="rId240" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Cardboard/CardboardCorrugated/index.htm"/>
+    <hyperlink ref="A835" r:id="rId241" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperPunchHoles/index.htm"/>
+    <hyperlink ref="A838" r:id="rId242" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Paper/Misc.Paper/PaperTowelRolls/index.htm"/>
+    <hyperlink ref="A915" r:id="rId243" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/AspirinContainers/index.htm"/>
+    <hyperlink ref="A885" r:id="rId244" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/BlisterPackages/index.htm"/>
+    <hyperlink ref="A974" r:id="rId245" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Vehicles/index.htm"/>
+    <hyperlink ref="A951" r:id="rId246" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/EnginesMotorsandCarParts/index.htm"/>
+    <hyperlink ref="A908" r:id="rId247" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/EyeglassFrames/index.htm"/>
+    <hyperlink ref="A964" r:id="rId248" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Flares/index.htm"/>
+    <hyperlink ref="A891" r:id="rId249" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/FoamBlocksPackingSheets/index.htm"/>
+    <hyperlink ref="A1001" r:id="rId250" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/LeavesNon-WoodyYardwaste/index.htm"/>
+    <hyperlink ref="A968" r:id="rId251" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/MotorOilFilters/index.htm"/>
+    <hyperlink ref="A897" r:id="rId252" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/PackingPeanuts/index.htm"/>
+    <hyperlink ref="A925" r:id="rId253" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PesticideContainers/index.htm"/>
+    <hyperlink ref="A937" r:id="rId254" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PrescriptionDrugContainers/index.htm"/>
+    <hyperlink ref="A985" r:id="rId255" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/ReusableLumber/index.htm"/>
+    <hyperlink ref="A941" r:id="rId256" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/ShampooLotionBottles/index.htm"/>
+    <hyperlink ref="A912" r:id="rId257" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/ShrinkWrap/index.htm"/>
+    <hyperlink ref="A948" r:id="rId258" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Styrofoam/StyrofoamBlocks/index.htm"/>
+    <hyperlink ref="A946" r:id="rId259" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Styrofoam/StyrofoamCupsUtensils/index.htm"/>
+    <hyperlink ref="A995" r:id="rId260" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/GrassClipingsSod/index.htm"/>
+    <hyperlink ref="A982" r:id="rId261" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/ChristmasTrees/index.htm"/>
+    <hyperlink ref="A920" r:id="rId262" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/Buckets/index.htm"/>
+    <hyperlink ref="A991" r:id="rId263" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Wood/WoodScrapsShavings/index.htm"/>
+    <hyperlink ref="A969" r:id="rId264" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/OtherVehicleFluids/index.htm"/>
+    <hyperlink ref="A875" r:id="rId265" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/WithRecycleNumbers/index.htm"/>
+    <hyperlink ref="A883" r:id="rId266" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/6-packPlasticRings/index.htm"/>
+    <hyperlink ref="A890" r:id="rId267" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/MailPackaging/BubbleWrap/index.htm"/>
+    <hyperlink ref="A901" r:id="rId268" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/BottleCaps/index.htm"/>
+    <hyperlink ref="A904" r:id="rId269" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/CDCases/index.htm"/>
+    <hyperlink ref="A910" r:id="rId270" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Misc.Plastic/PrinterCartridges/index.htm"/>
+    <hyperlink ref="A923" r:id="rId271" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/LaundryDetergentJugs/index.htm"/>
+    <hyperlink ref="A928" r:id="rId272" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/PlasticJugs/index.htm"/>
+    <hyperlink ref="A945" r:id="rId273" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/Non-FoodContainers/VitaminBottles/index.htm"/>
+    <hyperlink ref="A967" r:id="rId274" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/GasCans/index.htm"/>
+    <hyperlink ref="A973" r:id="rId275" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/Tires/index.htm"/>
+    <hyperlink ref="A978" r:id="rId276" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/VehiclesVehicle-related/VehicleBatteries/index.htm"/>
+    <hyperlink ref="A997" r:id="rId277" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/YardWaste/HousePlants/index.htm"/>
+    <hyperlink ref="A929" r:id="rId278" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/Plastic/FoodBeverageContainers/PlasticTubs/index.htm"/>
+    <hyperlink ref="A657" r:id="rId279" display="http://spucmsprod:16200/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/LiquidsHouseholdSupplies/Anti-Freeze/index.htm"/>
+    <hyperlink ref="A653" r:id="rId280" display="http://spucmsprod/Seattle_Public_Utilities/MyServices/WhereDoesItGo/HazardousItems/Fireworks/index.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId280"/>
+  <pageSetup orientation="portrait" r:id="rId281"/>
 </worksheet>
 </file>